--- a/v5/other_exp/binclass_new_dataset.xlsx
+++ b/v5/other_exp/binclass_new_dataset.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,9 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
     </font>
     <font>
       <color rgb="00FF0000"/>
@@ -58,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +467,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sylvine:binclass</t>
+          <t>Australian:binclass</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,12 +477,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9123,(0.00%:1)</t>
+          <t>0.8696,(0.00%:2)</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>0.9201,(0.85%:2)</t>
+          <t>0.8551,(-1.67%:1)</t>
         </is>
       </c>
     </row>
@@ -495,12 +499,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9094,(0.00%:1)</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>0.9103,(0.11%:2)</t>
+          <t>0.8406,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>0.8551,(1.72%:2)</t>
         </is>
       </c>
     </row>
@@ -517,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9327,(0.00%:1)</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0.9347,(0.21%:2)</t>
+          <t>0.8478,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>0.8623,(1.71%:2)</t>
         </is>
       </c>
     </row>
@@ -539,12 +543,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9074,(0.00%:1)</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0.9084,(0.11%:2)</t>
+          <t>0.8696,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>0.8841,(1.67%:2)</t>
         </is>
       </c>
     </row>
@@ -561,12 +565,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9084,(0.00%:1)</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0.9094,(0.11%:2)</t>
+          <t>0.8696,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>0.8768,(0.83%:2)</t>
         </is>
       </c>
     </row>
@@ -583,12 +587,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8908,(0.00%:1)</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0.9152,(2.74%:2)</t>
+          <t>0.8696,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.8696,(0.00%:1)</t>
         </is>
       </c>
     </row>
@@ -605,12 +609,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -632,26 +636,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>0.71%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MiniBooNE:binclass</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>total_avg_rank</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>2</v>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.9496,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>0.9516,(0.21%:2)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -662,17 +670,1245 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.9508,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>0.9518,(0.11%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.9514,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0.9512,(-0.02%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.9506,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>0.9512,(0.06%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.9503,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>0.9519,(0.17%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.9531,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0.9519,(-0.13%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bank-marketing:binclass</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.9079,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0.9062,(-0.18%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.9072,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>0.9073,(0.01%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.9082,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>0.9092,(0.11%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.9084,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0.9081,(-0.04%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.9071,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>0.9074,(0.04%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.9050,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>0.9062,(0.13%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jasmine:binclass</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.7843,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0.7709,(-1.71%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.7609,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0.7592,(-0.22%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.7926,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>0.7960,(0.42%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.7776,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0.7726,(-0.65%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.7876,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>0.7926,(0.64%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.7709,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>0.7776,(0.87%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-0.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>nomao:binclass</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.9617,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0.9584,(-0.35%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.9547,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>0.9552,(0.05%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.9624,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>0.9616,(-0.09%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.9575,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>0.9582,(0.08%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.9587,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.9587,(0.00%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.9563,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>0.9559,(-0.05%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kc1:binclass</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.8416,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0.8392,(-0.28%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.8534,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>0.8440,(-1.11%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.8369,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>0.8487,(1.41%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.8487,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>0.8440,(-0.56%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.8511,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>0.8416,(-1.11%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.8392,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>0.8345,(-0.56%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>madeline:binclass</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.6067,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>0.6083,(0.26%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.5701,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>0.5908,(3.63%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.6513,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>0.6529,(0.24%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.5892,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>0.6051,(2.70%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.5462,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0.5430,(-0.58%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.5812,(0.00%:2)</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>0.5541,(-4.66%:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sylvine:binclass</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AutoInt</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.9123,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>0.9201,(0.85%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DCN2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.9094,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>0.9103,(0.11%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FTTransformer</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.9327,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>0.9347,(0.21%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.9074,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>0.9084,(0.11%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.9084,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>0.9094,(0.11%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SNN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.8908,(0.00%:1)</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>0.9152,(2.74%:2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>avg_rank</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>avg_percentage</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>total_avg_rank</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>total_avg_percentage</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.69%</t>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15%</t>
         </is>
       </c>
     </row>
